--- a/Interface-Review Process.xlsx
+++ b/Interface-Review Process.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\DATA EM-3\13. IPRO\20241125 Diskusi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\DATA EM-3\13. IPRO\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECAFF93-708D-4767-92D8-D7C24D26410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C345E54-9979-4FAA-8890-E36068F12216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="74">
   <si>
     <t>500kV Principle of Installation Drawing</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Kontrak</t>
   </si>
   <si>
-    <t>DL Comment Sheet</t>
-  </si>
-  <si>
     <t>Upload File</t>
   </si>
   <si>
@@ -263,18 +260,31 @@
     <t>Interface Administrasi Sekretaris</t>
   </si>
   <si>
-    <t>Untuk DL Comment Sheet masukan ke AMS</t>
+    <t>DL Comment Sheet &amp; Reviewed Dwg</t>
+  </si>
+  <si>
+    <t>untuk masukan ke AMS</t>
+  </si>
+  <si>
+    <t>Untuk DL Comment Sheet &amp; Reviewed Dwg (zipped)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,11 +432,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,10 +445,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -447,58 +457,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1290,7 +1301,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7791450" cy="2697774"/>
+    <xdr:ext cx="7713519" cy="2670791"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
@@ -1317,8 +1328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19049" y="1676400"/>
-          <a:ext cx="7791450" cy="2697774"/>
+          <a:off x="19049" y="1858241"/>
+          <a:ext cx="7713519" cy="2670791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1385,16 +1396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447261</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>118027</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>115956</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1408,9 +1419,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4240696" y="5632174"/>
-          <a:ext cx="664679" cy="91109"/>
+        <a:xfrm flipV="1">
+          <a:off x="4008783" y="5847522"/>
+          <a:ext cx="896592" cy="115956"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1657,21 +1668,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -1788,16 +1799,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
@@ -2003,7 +2014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -2093,17 +2104,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
@@ -2437,18 +2448,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
@@ -2488,8 +2499,8 @@
       <c r="D4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>69</v>
+      <c r="F4" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2767,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A71156-22AC-46B8-86DE-C0C22253B46F}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2782,20 +2793,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2877,30 +2888,30 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2911,15 +2922,15 @@
         <v>42</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>42</v>
@@ -2929,22 +2940,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
